--- a/data/loop/group6/0.1/DNN/schedule/2.xlsx
+++ b/data/loop/group6/0.1/DNN/schedule/2.xlsx
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3887760639190674</v>
+        <v>0.3895859718322754</v>
       </c>
       <c r="G2" t="n">
         <v>0.06747279908578434</v>
       </c>
       <c r="H2" t="n">
-        <v>38.12165567624331</v>
+        <v>38.04240479754362</v>
       </c>
       <c r="I2" t="n">
         <v>6</v>
@@ -503,13 +503,13 @@
         <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3886580467224121</v>
+        <v>0.3902289867401123</v>
       </c>
       <c r="G3" t="n">
         <v>0.07259706041790701</v>
       </c>
       <c r="H3" t="n">
-        <v>35.44159843588851</v>
+        <v>35.29892163030492</v>
       </c>
       <c r="I3" t="n">
         <v>6</v>
@@ -538,19 +538,19 @@
         <v>239</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3964200019836426</v>
+        <v>0.398798942565918</v>
       </c>
       <c r="G4" t="n">
         <v>0.07277319316978748</v>
       </c>
       <c r="H4" t="n">
-        <v>34.66354769154062</v>
+        <v>34.45677051254793</v>
       </c>
       <c r="I4" t="n">
         <v>13</v>
@@ -585,13 +585,13 @@
         <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3909599781036377</v>
+        <v>0.3947079181671143</v>
       </c>
       <c r="G5" t="n">
         <v>0.07386011652276581</v>
       </c>
       <c r="H5" t="n">
-        <v>34.63041610116529</v>
+        <v>34.30158377238117</v>
       </c>
       <c r="I5" t="n">
         <v>18</v>
@@ -617,21 +617,25 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>165</v>
-      </c>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
+        <v>293</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
       <c r="F6" t="n">
-        <v>0.3938169479370117</v>
+        <v>0.3999819755554199</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0758903416128955</v>
+        <v>0.0752007549599787</v>
       </c>
       <c r="H6" t="n">
-        <v>33.45947252012313</v>
+        <v>33.2458451937837</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
@@ -654,25 +658,21 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>293</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s"/>
       <c r="F7" t="n">
-        <v>0.3980469703674316</v>
+        <v>0.3967030048370361</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0752007549599787</v>
+        <v>0.0758903416128955</v>
       </c>
       <c r="H7" t="n">
-        <v>33.40746150471717</v>
+        <v>33.2160512695643</v>
       </c>
       <c r="I7" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>5</v>
@@ -697,20 +697,16 @@
       <c r="C8" t="n">
         <v>204</v>
       </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
       <c r="F8" t="n">
-        <v>0.5236899852752686</v>
+        <v>0.5266590118408203</v>
       </c>
       <c r="G8" t="n">
         <v>0.07010238815987134</v>
       </c>
       <c r="H8" t="n">
-        <v>27.23911028087588</v>
+        <v>27.08555050077597</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
@@ -718,15 +714,9 @@
       <c r="J8" t="n">
         <v>6</v>
       </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2</v>
-      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="s"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="n">
@@ -738,20 +728,16 @@
       <c r="C9" t="n">
         <v>212</v>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
       <c r="F9" t="n">
-        <v>0.5233030319213867</v>
+        <v>0.5259308815002441</v>
       </c>
       <c r="G9" t="n">
         <v>0.07082950646180183</v>
       </c>
       <c r="H9" t="n">
-        <v>26.97941530005572</v>
+        <v>26.84461080838596</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -759,15 +745,9 @@
       <c r="J9" t="n">
         <v>7</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="s"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="n">
@@ -777,22 +757,18 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>143</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
       <c r="F10" t="n">
-        <v>0.5218429565429688</v>
+        <v>0.5196869373321533</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07171714048153915</v>
+        <v>0.07219650129959881</v>
       </c>
       <c r="H10" t="n">
-        <v>26.72004646228375</v>
+        <v>26.65275133876471</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
@@ -800,15 +776,9 @@
       <c r="J10" t="n">
         <v>8</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="s"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="n">
@@ -818,22 +788,18 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>206</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
       <c r="F11" t="n">
-        <v>0.5185220241546631</v>
+        <v>0.5249888896942139</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07219650129959881</v>
+        <v>0.07171714048153915</v>
       </c>
       <c r="H11" t="n">
-        <v>26.71262949206305</v>
+        <v>26.55992977863837</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
@@ -841,15 +807,9 @@
       <c r="J11" t="n">
         <v>9</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="s"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="n">
@@ -859,38 +819,28 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>83</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
       <c r="F12" t="n">
-        <v>0.5221860408782959</v>
+        <v>0.5233850479125977</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07198770661445271</v>
+        <v>0.07245473383700514</v>
       </c>
       <c r="H12" t="n">
-        <v>26.60212953938883</v>
+        <v>26.37010888570663</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
         <v>10</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="n">
@@ -900,38 +850,28 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>91</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s"/>
       <c r="F13" t="n">
-        <v>0.5209181308746338</v>
+        <v>0.5270020961761475</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07245473383700514</v>
+        <v>0.07198770661445271</v>
       </c>
       <c r="H13" t="n">
-        <v>26.49499006577592</v>
+        <v>26.35902362419056</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>11</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="n">
@@ -943,20 +883,16 @@
       <c r="C14" t="n">
         <v>276</v>
       </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
+      <c r="D14" t="s"/>
+      <c r="E14" t="s"/>
       <c r="F14" t="n">
-        <v>0.527108907699585</v>
+        <v>0.5288281440734863</v>
       </c>
       <c r="G14" t="n">
         <v>0.07371593861777431</v>
       </c>
       <c r="H14" t="n">
-        <v>25.73583388947879</v>
+        <v>25.65216591107913</v>
       </c>
       <c r="I14" t="n">
         <v>6</v>
@@ -964,15 +900,9 @@
       <c r="J14" t="n">
         <v>12</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="s"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="n">
@@ -984,20 +914,16 @@
       <c r="C15" t="n">
         <v>268</v>
       </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
+      <c r="D15" t="s"/>
+      <c r="E15" t="s"/>
       <c r="F15" t="n">
-        <v>0.5259721279144287</v>
+        <v>0.5292150974273682</v>
       </c>
       <c r="G15" t="n">
         <v>0.07581738153662894</v>
       </c>
       <c r="H15" t="n">
-        <v>25.07659049013689</v>
+        <v>24.92292401530783</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1005,15 +931,9 @@
       <c r="J15" t="n">
         <v>13</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="s"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="n">
@@ -1025,20 +945,16 @@
       <c r="C16" t="n">
         <v>217</v>
       </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2</v>
-      </c>
+      <c r="D16" t="s"/>
+      <c r="E16" t="s"/>
       <c r="F16" t="n">
-        <v>0.5250999927520752</v>
+        <v>0.5287280082702637</v>
       </c>
       <c r="G16" t="n">
         <v>0.07785659921765407</v>
       </c>
       <c r="H16" t="n">
-        <v>24.46034385636068</v>
+        <v>24.29250234673189</v>
       </c>
       <c r="I16" t="n">
         <v>21</v>
@@ -1046,15 +962,9 @@
       <c r="J16" t="n">
         <v>14</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="s"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="n">
@@ -1066,20 +976,16 @@
       <c r="C17" t="n">
         <v>82</v>
       </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
+      <c r="D17" t="s"/>
+      <c r="E17" t="s"/>
       <c r="F17" t="n">
-        <v>0.5220460891723633</v>
+        <v>0.5245778560638428</v>
       </c>
       <c r="G17" t="n">
         <v>0.07874901496825969</v>
       </c>
       <c r="H17" t="n">
-        <v>24.32461769149414</v>
+        <v>24.20721993822008</v>
       </c>
       <c r="I17" t="n">
         <v>6</v>
@@ -1087,15 +993,9 @@
       <c r="J17" t="n">
         <v>15</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="s"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="n">
@@ -1107,20 +1007,16 @@
       <c r="C18" t="n">
         <v>147</v>
       </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2</v>
-      </c>
+      <c r="D18" t="s"/>
+      <c r="E18" t="s"/>
       <c r="F18" t="n">
-        <v>0.5216619968414307</v>
+        <v>0.5235979557037354</v>
       </c>
       <c r="G18" t="n">
         <v>0.08064732212920718</v>
       </c>
       <c r="H18" t="n">
-        <v>23.76954394491658</v>
+        <v>23.68165807990923</v>
       </c>
       <c r="I18" t="n">
         <v>27</v>
@@ -1128,15 +1024,9 @@
       <c r="J18" t="n">
         <v>16</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="s"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="n">
@@ -1148,20 +1038,16 @@
       <c r="C19" t="n">
         <v>96</v>
       </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
+      <c r="D19" t="s"/>
+      <c r="E19" t="s"/>
       <c r="F19" t="n">
-        <v>0.518949031829834</v>
+        <v>0.5201311111450195</v>
       </c>
       <c r="G19" t="n">
         <v>0.08188733609283165</v>
       </c>
       <c r="H19" t="n">
-        <v>23.53198434518657</v>
+        <v>23.47850422960863</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1169,15 +1055,9 @@
       <c r="J19" t="n">
         <v>17</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="s"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="n">
@@ -1189,20 +1069,16 @@
       <c r="C20" t="n">
         <v>78</v>
       </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
+      <c r="D20" t="s"/>
+      <c r="E20" t="s"/>
       <c r="F20" t="n">
-        <v>0.8652858734130859</v>
+        <v>0.8729979991912842</v>
       </c>
       <c r="G20" t="n">
         <v>0.07245447581183466</v>
       </c>
       <c r="H20" t="n">
-        <v>15.95053181546659</v>
+        <v>15.80962369459577</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
@@ -1210,15 +1086,9 @@
       <c r="J20" t="n">
         <v>18</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
+      <c r="M20" t="s"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="n">
@@ -1230,20 +1100,16 @@
       <c r="C21" t="n">
         <v>62</v>
       </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2</v>
-      </c>
+      <c r="D21" t="s"/>
+      <c r="E21" t="s"/>
       <c r="F21" t="n">
-        <v>0.8711769580841064</v>
+        <v>0.8759150505065918</v>
       </c>
       <c r="G21" t="n">
         <v>0.07235607658367892</v>
       </c>
       <c r="H21" t="n">
-        <v>15.86421584213827</v>
+        <v>15.77840144629379</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
@@ -1251,15 +1117,9 @@
       <c r="J21" t="n">
         <v>19</v>
       </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="s"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="n">
@@ -1271,20 +1131,16 @@
       <c r="C22" t="n">
         <v>132</v>
       </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
+      <c r="D22" t="s"/>
+      <c r="E22" t="s"/>
       <c r="F22" t="n">
-        <v>0.8667550086975098</v>
+        <v>0.8755419254302979</v>
       </c>
       <c r="G22" t="n">
         <v>0.07383350439919079</v>
       </c>
       <c r="H22" t="n">
-        <v>15.62608412118973</v>
+        <v>15.46926113414093</v>
       </c>
       <c r="I22" t="n">
         <v>6</v>
@@ -1292,15 +1148,9 @@
       <c r="J22" t="n">
         <v>20</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="s"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="n">
@@ -1312,20 +1162,16 @@
       <c r="C23" t="n">
         <v>253</v>
       </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
+      <c r="D23" t="s"/>
+      <c r="E23" t="s"/>
       <c r="F23" t="n">
-        <v>0.8794350624084473</v>
+        <v>0.881397008895874</v>
       </c>
       <c r="G23" t="n">
         <v>0.07497843947924028</v>
       </c>
       <c r="H23" t="n">
-        <v>15.16560799892835</v>
+        <v>15.1318500997718</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1333,15 +1179,9 @@
       <c r="J23" t="n">
         <v>21</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="s"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="n">
@@ -1353,20 +1193,16 @@
       <c r="C24" t="n">
         <v>259</v>
       </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2</v>
-      </c>
+      <c r="D24" t="s"/>
+      <c r="E24" t="s"/>
       <c r="F24" t="n">
-        <v>0.8767940998077393</v>
+        <v>0.8817441463470459</v>
       </c>
       <c r="G24" t="n">
         <v>0.0753451273050243</v>
       </c>
       <c r="H24" t="n">
-        <v>15.13725790261704</v>
+        <v>15.05227845432031</v>
       </c>
       <c r="I24" t="n">
         <v>6</v>
@@ -1374,15 +1210,9 @@
       <c r="J24" t="n">
         <v>22</v>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="s"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="n">
@@ -1394,20 +1224,16 @@
       <c r="C25" t="n">
         <v>124</v>
       </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
+      <c r="D25" t="s"/>
+      <c r="E25" t="s"/>
       <c r="F25" t="n">
-        <v>0.8851768970489502</v>
+        <v>0.8904759883880615</v>
       </c>
       <c r="G25" t="n">
         <v>0.07541809979989859</v>
       </c>
       <c r="H25" t="n">
-        <v>14.9793974351369</v>
+        <v>14.89025724915914</v>
       </c>
       <c r="I25" t="n">
         <v>6</v>
@@ -1415,15 +1241,9 @@
       <c r="J25" t="n">
         <v>23</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s"/>
+      <c r="M25" t="s"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="n">
@@ -1433,38 +1253,28 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>11</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="D26" t="s"/>
+      <c r="E26" t="s"/>
       <c r="F26" t="n">
-        <v>0.8954930305480957</v>
+        <v>0.875478982925415</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07468177430555409</v>
+        <v>0.07712139225323032</v>
       </c>
       <c r="H26" t="n">
-        <v>14.95282196274404</v>
+        <v>14.8108305803458</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>24</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="s"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="n">
@@ -1474,38 +1284,28 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>184</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="D27" t="s"/>
+      <c r="E27" t="s"/>
       <c r="F27" t="n">
-        <v>0.8725118637084961</v>
+        <v>0.8837211132049561</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07712139225323032</v>
+        <v>0.0771758309667329</v>
       </c>
       <c r="H27" t="n">
-        <v>14.86119723077356</v>
+        <v>14.6623456968725</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J27" t="n">
         <v>25</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="s"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="n">
@@ -1517,20 +1317,16 @@
       <c r="C28" t="n">
         <v>19</v>
       </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
+      <c r="D28" t="s"/>
+      <c r="E28" t="s"/>
       <c r="F28" t="n">
-        <v>0.8848609924316406</v>
+        <v>0.8973128795623779</v>
       </c>
       <c r="G28" t="n">
         <v>0.07651402764644753</v>
       </c>
       <c r="H28" t="n">
-        <v>14.77011531720443</v>
+        <v>14.5651524630799</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
@@ -1538,15 +1334,9 @@
       <c r="J28" t="n">
         <v>26</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="s"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="n">
@@ -1556,38 +1346,28 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>255</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D29" t="s"/>
+      <c r="E29" t="s"/>
       <c r="F29" t="n">
-        <v>0.8811490535736084</v>
+        <v>0.9210989475250244</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0771758309667329</v>
+        <v>0.07468177430555409</v>
       </c>
       <c r="H29" t="n">
-        <v>14.70514484341286</v>
+        <v>14.53714380050358</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
         <v>27</v>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="s"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="n">
@@ -1599,20 +1379,16 @@
       <c r="C30" t="n">
         <v>192</v>
       </c>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1</v>
-      </c>
+      <c r="D30" t="s"/>
+      <c r="E30" t="s"/>
       <c r="F30" t="n">
-        <v>0.8699789047241211</v>
+        <v>0.8831770420074463</v>
       </c>
       <c r="G30" t="n">
         <v>0.07878967612100365</v>
       </c>
       <c r="H30" t="n">
-        <v>14.58888036157909</v>
+        <v>14.37086513171705</v>
       </c>
       <c r="I30" t="n">
         <v>20</v>
@@ -1620,15 +1396,9 @@
       <c r="J30" t="n">
         <v>28</v>
       </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="s"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="n">
@@ -1640,20 +1410,16 @@
       <c r="C31" t="n">
         <v>63</v>
       </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
+      <c r="D31" t="s"/>
+      <c r="E31" t="s"/>
       <c r="F31" t="n">
-        <v>0.8793699741363525</v>
+        <v>0.8888089656829834</v>
       </c>
       <c r="G31" t="n">
         <v>0.07854853898047223</v>
       </c>
       <c r="H31" t="n">
-        <v>14.47738940100902</v>
+        <v>14.32364212634196</v>
       </c>
       <c r="I31" t="n">
         <v>25</v>
@@ -1661,15 +1427,9 @@
       <c r="J31" t="n">
         <v>29</v>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
+      <c r="M31" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
